--- a/public/excel/laporan_rf.xlsx
+++ b/public/excel/laporan_rf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44121D-4A8F-CB4A-9968-628BE8050685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4E6D98-0374-A44E-B2F4-E8E5855EE3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="680" windowWidth="33600" windowHeight="18880" firstSheet="20" activeTab="36" xr2:uid="{33DD5693-5873-AC4D-B890-37A30B44CD71}"/>
+    <workbookView xWindow="-160" yWindow="680" windowWidth="33600" windowHeight="18880" activeTab="1" xr2:uid="{33DD5693-5873-AC4D-B890-37A30B44CD71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="16">
   <si>
     <t>testing</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>TTB %</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4202,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C51867-790B-5D4A-B04A-0F2D77B082DC}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4217,7 +4220,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -5265,7 +5270,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5619,7 +5624,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10928,7 +10933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EFA21A-2CF8-AD4E-9B8C-968BA2FFC3AE}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/public/excel/laporan_rf.xlsx
+++ b/public/excel/laporan_rf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F5A88-FBFD-2A45-8F96-D154B29075C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353A321-0A32-B346-AD53-54D0628E5A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap" sheetId="1" r:id="rId1"/>
@@ -221,13 +221,7 @@
     <t>Dinas Kependudukan dan Pencatatan Sipil</t>
   </si>
   <si>
-    <t>Dinas Pengendalian Penduduk,Kb dan Pemberdayaan Masyarakat</t>
-  </si>
-  <si>
     <t>Dinas Perhubungan</t>
-  </si>
-  <si>
-    <t>Dinas Kominikasi,Informatika dan Statistik</t>
   </si>
   <si>
     <t>Dinas Koperasi,Usaha Mikro dan Tenaga Kerja</t>
@@ -281,9 +275,6 @@
     <t>Inspektorat</t>
   </si>
   <si>
-    <t>Badan Kepegawaian, Pendidikan Dan Pelatihan Daerah</t>
-  </si>
-  <si>
     <t>Badan Penanggulangan Bencana Daerah</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
   </si>
   <si>
     <t>Kecamatan Banjarmasin Selatan</t>
-  </si>
-  <si>
-    <t>Badan Perencanaan Pembangunan Daerah, Penelitian dan Pengambangan</t>
   </si>
   <si>
     <t>RSUD Sultan Suriansyah</t>
@@ -366,6 +354,18 @@
   </si>
   <si>
     <t>KONDISI</t>
+  </si>
+  <si>
+    <t>Dinas Komunikasi,Informatika dan Statistik</t>
+  </si>
+  <si>
+    <t>Dinas Pengendalian Penduduk,KB dan Pemberdayaan Masyarakat</t>
+  </si>
+  <si>
+    <t>Badan Kepegawaian daerah, Pendidikan Dan Pelatihan</t>
+  </si>
+  <si>
+    <t>Badan Perencanaan Pembangunan Daerah, Penelitian dan Pengembangan</t>
   </si>
 </sst>
 </file>
@@ -859,6 +859,37 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,41 +902,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="169" zoomScaleNormal="169" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,117 +1274,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
+      <c r="A4" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1397,11 +1397,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1409,80 +1409,80 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="75" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76" t="s">
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="72" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="83" t="s">
+      <c r="D7" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="83"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="83"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="75" t="s">
+      <c r="K7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="76"/>
+      <c r="L7" s="68"/>
       <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="84" t="s">
+      <c r="N7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="84"/>
+      <c r="S7" s="74"/>
       <c r="T7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1492,15 +1492,15 @@
       <c r="V7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="72" t="s">
+      <c r="W7" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="V8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="81"/>
+      <c r="W8" s="70"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
@@ -2368,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C21" s="28">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="28">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C23" s="28">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="28">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="28">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="28">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="28">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="28">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="28">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="28">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="28">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="28">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="28">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="28">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="28">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="28">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C41" s="28">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C42" s="28">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C43" s="28">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C44" s="28">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="28">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="28">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C47" s="28">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C48" s="28">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C49" s="28">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" s="28">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     <row r="52" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="58" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C52" s="59">
         <f>SUM(C10:C50)</f>
@@ -4662,6 +4662,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
@@ -4672,16 +4682,6 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="W7:W8"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.18" top="0.3" bottom="0.25" header="0.15" footer="0.12"/>
   <pageSetup paperSize="14" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4726,7 +4726,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -4747,7 +4747,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -4768,7 +4768,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -4789,7 +4789,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -4877,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -4951,19 +4951,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -4975,16 +4975,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -5017,7 +5017,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -5039,11 +5039,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -5056,6 +5051,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.21" top="0.44" bottom="0.42" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5097,7 +5097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -5118,7 +5118,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -5139,7 +5139,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -5160,7 +5160,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -5248,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -5322,19 +5322,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -5346,16 +5346,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -5388,7 +5388,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -5410,6 +5410,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -5426,7 +5427,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.47" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5468,7 +5468,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -5489,7 +5489,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -5510,7 +5510,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -5531,7 +5531,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -5619,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -5693,19 +5693,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -5717,16 +5717,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -5759,7 +5759,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -5781,6 +5781,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -5797,7 +5798,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.18" top="0.41" bottom="0.45" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5839,7 +5839,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -5860,7 +5860,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -5881,7 +5881,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -5902,7 +5902,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -5990,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -6064,19 +6064,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -6088,16 +6088,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -6130,7 +6130,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -6152,6 +6152,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -6168,7 +6169,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.26" top="0.4" bottom="0.48" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6210,7 +6210,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -6231,7 +6231,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -6252,7 +6252,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -6273,7 +6273,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -6361,7 +6361,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -6435,19 +6435,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -6459,16 +6459,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -6501,7 +6501,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -6523,6 +6523,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -6539,7 +6540,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.24" top="0.42" bottom="0.45" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6581,7 +6581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -6602,7 +6602,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -6623,7 +6623,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -6644,7 +6644,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -6732,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -6806,19 +6806,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -6830,16 +6830,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -6872,7 +6872,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -6894,6 +6894,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -6910,7 +6911,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.23" top="0.47" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6952,7 +6952,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -6973,7 +6973,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -6994,7 +6994,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -7015,7 +7015,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -7103,7 +7103,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -7177,19 +7177,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -7201,16 +7201,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -7243,7 +7243,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -7265,6 +7265,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7281,7 +7282,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.54" bottom="0.45" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7323,7 +7323,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -7344,7 +7344,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -7365,7 +7365,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -7386,7 +7386,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -7474,7 +7474,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -7548,19 +7548,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -7572,16 +7572,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -7614,7 +7614,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -7636,6 +7636,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7652,7 +7653,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.18" right="0.16" top="0.42" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7694,7 +7694,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -7715,7 +7715,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -7736,7 +7736,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -7757,7 +7757,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -7845,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -7919,19 +7919,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -7943,16 +7943,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -7985,7 +7985,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -8007,6 +8007,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8023,7 +8024,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.16" top="0.42" bottom="0.41" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8065,7 +8065,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -8086,7 +8086,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -8107,7 +8107,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -8128,7 +8128,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -8290,19 +8290,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -8314,16 +8314,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -8356,7 +8356,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -8378,6 +8378,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8394,7 +8395,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.21" top="0.44" bottom="0.39" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8421,7 +8421,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -8480,39 +8480,39 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -8586,7 +8586,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -8607,7 +8607,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -8628,7 +8628,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -8649,7 +8649,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -8737,7 +8737,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -8811,19 +8811,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -8835,16 +8835,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -8877,7 +8877,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -8899,11 +8899,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8916,6 +8911,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.19" top="0.4" bottom="0.47" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8957,7 +8957,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -8978,7 +8978,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -8999,7 +8999,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -9020,7 +9020,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -9108,7 +9108,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -9182,19 +9182,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -9206,16 +9206,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -9248,7 +9248,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -9270,11 +9270,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -9287,6 +9282,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.13" top="0.42" bottom="0.65" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9328,7 +9328,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -9349,7 +9349,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -9370,7 +9370,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -9391,7 +9391,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -9479,7 +9479,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -9553,19 +9553,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -9577,16 +9577,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -9619,7 +9619,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -9641,6 +9641,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -9657,7 +9658,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.16" top="0.45" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9699,7 +9699,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -9720,7 +9720,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -9741,7 +9741,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -9762,7 +9762,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -9850,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -9924,19 +9924,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -9948,16 +9948,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -9990,7 +9990,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -10012,6 +10012,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -10028,7 +10029,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.15" top="0.41" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10070,7 +10070,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -10091,7 +10091,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -10112,7 +10112,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -10133,7 +10133,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -10221,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -10295,19 +10295,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -10319,16 +10319,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -10361,7 +10361,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -10383,6 +10383,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -10399,7 +10400,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.16" top="0.42" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10441,7 +10441,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -10462,7 +10462,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -10483,7 +10483,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -10504,7 +10504,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -10592,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -10666,19 +10666,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -10690,16 +10690,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -10732,7 +10732,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -10754,6 +10754,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -10770,7 +10771,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.16" top="0.42" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10812,7 +10812,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -10833,7 +10833,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -10854,7 +10854,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -10875,7 +10875,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -10963,7 +10963,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -11037,19 +11037,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -11061,16 +11061,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -11103,7 +11103,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -11125,6 +11125,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -11141,7 +11142,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.16" top="0.36" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11183,7 +11183,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -11204,7 +11204,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -11225,7 +11225,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -11246,7 +11246,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -11334,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -11408,19 +11408,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -11432,16 +11432,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -11474,7 +11474,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -11496,6 +11496,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -11512,7 +11513,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.19" top="0.39" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11554,7 +11554,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -11575,7 +11575,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -11596,7 +11596,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -11617,7 +11617,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -11705,7 +11705,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -11779,19 +11779,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -11803,16 +11803,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -11845,7 +11845,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -11867,6 +11867,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -11883,7 +11884,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.2" top="0.44" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11925,7 +11925,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -11946,7 +11946,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -11967,7 +11967,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -11988,7 +11988,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -12076,7 +12076,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -12150,19 +12150,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -12174,16 +12174,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -12216,7 +12216,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -12238,6 +12238,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -12254,7 +12255,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.41" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -12296,7 +12296,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -12317,7 +12317,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -12338,7 +12338,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -12359,7 +12359,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -12447,7 +12447,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -12521,19 +12521,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -12545,16 +12545,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -12587,7 +12587,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="38"/>
@@ -12609,6 +12609,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="K9:L9"/>
@@ -12625,7 +12626,6 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.12" top="0.39370078740157483" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -12667,7 +12667,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -12688,7 +12688,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -12709,7 +12709,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -12730,7 +12730,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -12818,7 +12818,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -12892,19 +12892,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -12916,16 +12916,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -12958,7 +12958,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -12980,6 +12980,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -12996,7 +12997,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.21" top="0.44" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -13038,7 +13038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -13059,7 +13059,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -13080,7 +13080,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -13101,7 +13101,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -13189,7 +13189,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -13263,19 +13263,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -13287,16 +13287,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -13329,7 +13329,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -13351,6 +13351,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -13367,7 +13368,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.16" top="0.38" bottom="0.34" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -13409,7 +13409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -13430,7 +13430,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -13451,7 +13451,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -13472,7 +13472,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -13560,7 +13560,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -13634,19 +13634,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -13658,16 +13658,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -13700,7 +13700,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -13722,6 +13722,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -13738,7 +13739,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.15" top="0.41" bottom="0.39" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -13780,7 +13780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -13801,7 +13801,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -13822,7 +13822,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -13843,7 +13843,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -13931,7 +13931,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -14005,19 +14005,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -14029,16 +14029,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -14071,7 +14071,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -14093,6 +14093,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -14109,7 +14110,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.15" top="0.41" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14151,7 +14151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -14172,7 +14172,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -14193,7 +14193,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -14214,7 +14214,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -14302,7 +14302,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -14376,19 +14376,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -14400,16 +14400,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -14442,7 +14442,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -14464,6 +14464,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -14480,7 +14481,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.18" right="0.13" top="0.38" bottom="0.39" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14522,7 +14522,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -14543,7 +14543,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -14564,7 +14564,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -14585,7 +14585,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -14673,7 +14673,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -14747,19 +14747,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -14771,16 +14771,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -14813,7 +14813,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -14835,6 +14835,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -14851,7 +14852,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.18" right="0.13" top="0.38" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14893,7 +14893,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -14914,7 +14914,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -14935,7 +14935,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -14956,7 +14956,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -15044,7 +15044,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -15118,19 +15118,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -15142,16 +15142,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -15184,7 +15184,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -15206,6 +15206,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -15222,7 +15223,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.13" top="0.39" bottom="0.39" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15264,7 +15264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -15285,7 +15285,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -15306,7 +15306,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -15327,7 +15327,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -15415,7 +15415,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -15489,19 +15489,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -15513,16 +15513,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -15555,7 +15555,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -15577,6 +15577,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -15593,7 +15594,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.2" top="0.41" bottom="0.41" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -15635,7 +15635,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -15656,7 +15656,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -15677,7 +15677,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -15698,7 +15698,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -15786,7 +15786,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -15860,19 +15860,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -15926,7 +15926,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -15948,6 +15948,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -15964,7 +15965,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.18" top="0.38" bottom="0.39" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -16006,7 +16006,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -16027,7 +16027,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -16048,7 +16048,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -16069,7 +16069,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -16157,7 +16157,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -16231,19 +16231,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -16255,16 +16255,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -16297,7 +16297,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -16319,6 +16319,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -16335,7 +16336,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.18" top="0.39" bottom="0.37" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -16377,7 +16377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -16398,7 +16398,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -16419,7 +16419,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -16440,7 +16440,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -16528,7 +16528,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -16602,19 +16602,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -16626,16 +16626,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -16668,7 +16668,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -16690,6 +16690,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
@@ -16706,7 +16707,6 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.23" top="0.44" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -16748,7 +16748,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -16769,7 +16769,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -16790,7 +16790,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -16811,7 +16811,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -16899,7 +16899,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -16973,19 +16973,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -16997,16 +16997,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -17039,7 +17039,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -17061,6 +17061,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -17077,7 +17078,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.38" bottom="0.36" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -17119,7 +17119,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -17140,7 +17140,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -17161,7 +17161,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -17182,7 +17182,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -17270,7 +17270,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -17344,19 +17344,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -17368,16 +17368,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -17410,7 +17410,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -17432,6 +17432,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -17448,7 +17449,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.39" bottom="0.38" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -17490,7 +17490,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -17511,7 +17511,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -17532,7 +17532,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -17553,7 +17553,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -17641,7 +17641,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -17715,19 +17715,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -17739,16 +17739,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -17781,7 +17781,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="56"/>
@@ -17803,6 +17803,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A1:S1"/>
@@ -17819,7 +17820,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.12" top="0.47" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.17"/>
   <pageSetup paperSize="14" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -17861,7 +17861,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -17882,7 +17882,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -17903,7 +17903,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -17924,7 +17924,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -18012,7 +18012,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -18086,19 +18086,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -18110,16 +18110,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -18152,7 +18152,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -18174,11 +18174,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -18191,6 +18186,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.12" top="0.55000000000000004" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" scale="80" orientation="landscape" r:id="rId1"/>
@@ -18232,7 +18232,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -18253,7 +18253,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -18274,7 +18274,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -18295,7 +18295,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -18383,7 +18383,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -18457,19 +18457,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -18481,16 +18481,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -18523,7 +18523,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -18545,12 +18545,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="N8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
@@ -18562,6 +18556,12 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="N8:S8"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.18" top="0.41" bottom="0.45" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -18603,7 +18603,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -18624,7 +18624,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -18645,7 +18645,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -18666,7 +18666,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -18754,7 +18754,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -18828,19 +18828,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -18852,16 +18852,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -18894,7 +18894,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -18916,12 +18916,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="N8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
@@ -18933,6 +18927,12 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="N8:S8"/>
   </mergeCells>
   <pageMargins left="0.21" right="0.18" top="0.47" bottom="0.44" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -18974,7 +18974,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -18995,7 +18995,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -19016,7 +19016,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -19037,7 +19037,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -19125,7 +19125,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -19199,19 +19199,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -19223,16 +19223,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -19265,7 +19265,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -19287,6 +19287,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -19303,7 +19304,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.19" top="0.44" bottom="0.4" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -19345,7 +19345,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -19366,7 +19366,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -19387,7 +19387,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -19408,7 +19408,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -19496,7 +19496,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -19570,19 +19570,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -19594,16 +19594,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -19636,7 +19636,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -19658,6 +19658,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -19674,7 +19675,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.23" top="0.39" bottom="0.46" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -19716,7 +19716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
       <c r="D1" s="89"/>
@@ -19737,7 +19737,7 @@
       <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -19758,7 +19758,7 @@
       <c r="S2" s="89"/>
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
@@ -19779,7 +19779,7 @@
       <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -19867,7 +19867,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>5</v>
@@ -19941,19 +19941,19 @@
         <v>9</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>10</v>
@@ -19965,16 +19965,16 @@
         <v>9</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="40" t="s">
         <v>10</v>
@@ -20007,7 +20007,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
@@ -20029,6 +20029,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
@@ -20045,7 +20046,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.24" top="0.43" bottom="0.51" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
